--- a/data/case1/2/P2_1.xlsx
+++ b/data/case1/2/P2_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.30411028838430809</v>
+        <v>0.3312325492543664</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996026696181</v>
+        <v>-0.0099999993697217349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999995965097668</v>
+        <v>-0.0089999993608156359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999893873792</v>
+        <v>-0.011999999832617902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.005999999603747419</v>
+        <v>-0.005999999371945286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995931079297</v>
+        <v>-0.0059999993573143229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999516709721</v>
+        <v>-0.01999999924413487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.047567371404095837</v>
+        <v>-0.019999999239132649</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995889992164</v>
+        <v>-0.0059999993461037349</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995854340682</v>
+        <v>-0.0059999993427481968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.004499999593317483</v>
+        <v>-0.0044999993545928874</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995847070942</v>
+        <v>-0.0059999993423804909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.049311042678987782</v>
+        <v>-0.0059999993411397057</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.051935136972286244</v>
+        <v>-0.011999999293447416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0020261585497438617</v>
+        <v>-0.0059999993420714048</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.005999999580838189</v>
+        <v>-0.0059999993439063815</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995791351068</v>
+        <v>-0.0059999993484902703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995624383544</v>
+        <v>0.029589319393379832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996076373101</v>
+        <v>-0.0089999993764475761</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999996040273089</v>
+        <v>-0.052061164673743221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999996035112773</v>
+        <v>-0.0089999993601281858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999996031178142</v>
+        <v>-0.0089999993595428762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999995929437304</v>
+        <v>-0.0089999993549891855</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999406575839</v>
+        <v>-0.041999999082397821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999403286914</v>
+        <v>-0.041999999077262373</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999995912853876</v>
+        <v>-0.0059999993571935306</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995886812485</v>
+        <v>-0.0059999993563097931</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995782806792</v>
+        <v>-0.0059999993520056805</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.028456803334526271</v>
+        <v>-0.011999999301805175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999492352316</v>
+        <v>-0.019999999237671151</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999515497464</v>
+        <v>-0.014999999278924037</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999482171461</v>
+        <v>0.045495068428927254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995636150771</v>
+        <v>-0.020596381311274392</v>
       </c>
     </row>
   </sheetData>
